--- a/DG/data/Arg.xlsx
+++ b/DG/data/Arg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2489b4ab3e3a2fa6/Escritorio/David Guzzi/Github/MECTMT11/DG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{9016ADDD-22A1-4240-AACE-AEB2F52293FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A5A166A-1F2A-488B-80D4-EA9EDE4323EF}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{9016ADDD-22A1-4240-AACE-AEB2F52293FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22A06444-E0A5-4D40-899D-5B053D9D2652}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9E7A37D-4260-4CB4-8811-068D8D482F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A9E7A37D-4260-4CB4-8811-068D8D482F08}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data_Arg!$B$2:$F$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">data!$L$4:$L$27</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="50"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,8 +40,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>David Guzzi</author>
+  </authors>
+  <commentList>
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{74BB9A01-329F-408F-939D-3F528E518299}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Guzzi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Se genera mediante fórmula:
+=INDICE($O$100:$O$133;1+ENTERO(ALEATORIO()*$P$100))
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="149">
   <si>
     <t>Original data</t>
   </si>
@@ -507,6 +543,9 @@
   <si>
     <t>horas semanales promedio index</t>
   </si>
+  <si>
+    <t>Horas sin 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -516,7 +555,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -561,6 +600,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -962,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90410B2D-0838-440F-867B-BE67E484F62F}">
   <dimension ref="A1:AC243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24789,12 +24841,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC12CF6-E402-40DF-8709-5D66AF609FA0}">
-  <dimension ref="B1:AI91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC12CF6-E402-40DF-8709-5D66AF609FA0}">
+  <dimension ref="B1:AI133"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -24947,8 +24997,8 @@
         <f>M3/$M$3</f>
         <v>1</v>
       </c>
-      <c r="O3">
-        <v>46</v>
+      <c r="O3" s="7">
+        <v>41.010100000000001</v>
       </c>
       <c r="P3" s="8">
         <f>O3/$O$3*100</f>
@@ -25024,12 +25074,12 @@
         <f>M4/$M$3</f>
         <v>1.0115339048288039</v>
       </c>
-      <c r="O4">
-        <v>42</v>
+      <c r="O4" s="7">
+        <v>41.991199999999999</v>
       </c>
       <c r="P4" s="8">
         <f t="shared" ref="P4:P67" si="4">O4/$O$3*100</f>
-        <v>91.304347826086953</v>
+        <v>102.39233749734822</v>
       </c>
       <c r="S4" s="6">
         <f t="shared" ref="S4:S67" si="5">LN(D4/I4)*100</f>
@@ -25045,7 +25095,7 @@
       </c>
       <c r="V4" s="6">
         <f t="shared" si="0"/>
-        <v>-8.207252609041042</v>
+        <v>3.254094680533496</v>
       </c>
       <c r="W4" s="6">
         <f>(LN(G4)-LN(G3))*100</f>
@@ -25076,7 +25126,7 @@
       </c>
       <c r="AF4" s="6">
         <f>V4-$V$91</f>
-        <v>-15.661201265604159</v>
+        <v>-11.301937000651346</v>
       </c>
       <c r="AG4" s="6">
         <f>W4</f>
@@ -25135,12 +25185,12 @@
         <f>M5/$M$3</f>
         <v>1.0321337325782094</v>
       </c>
-      <c r="O5">
-        <v>50</v>
+      <c r="O5" s="7">
+        <v>41.991199999999999</v>
       </c>
       <c r="P5" s="8">
         <f t="shared" si="4"/>
-        <v>108.69565217391303</v>
+        <v>102.39233749734822</v>
       </c>
       <c r="S5" s="6">
         <f t="shared" si="5"/>
@@ -25156,7 +25206,7 @@
       </c>
       <c r="V5" s="6">
         <f t="shared" si="0"/>
-        <v>10.987256482491539</v>
+        <v>5.0132650575882964</v>
       </c>
       <c r="W5" s="6">
         <f t="shared" ref="W5:W68" si="13">(LN(G5)-LN(G4))*100</f>
@@ -25188,7 +25238,7 @@
       </c>
       <c r="AF5" s="6">
         <f t="shared" ref="AF5:AF68" si="14">V5-$V$91</f>
-        <v>3.5333078259284214</v>
+        <v>-9.5427666235965454</v>
       </c>
       <c r="AG5" s="6">
         <f t="shared" ref="AG5:AG68" si="15">W5</f>
@@ -25247,12 +25297,12 @@
         <f t="shared" ref="N6:N69" si="18">M6/$M$3</f>
         <v>1.0445007188904358</v>
       </c>
-      <c r="O6">
-        <v>45</v>
+      <c r="O6" s="7">
+        <v>41.892200000000003</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" si="4"/>
-        <v>97.826086956521735</v>
+        <v>102.15093355051562</v>
       </c>
       <c r="S6" s="6">
         <f t="shared" si="5"/>
@@ -25268,7 +25318,7 @@
       </c>
       <c r="V6" s="6">
         <f t="shared" si="0"/>
-        <v>1.3854150643835847</v>
+        <v>5.7114331612695786</v>
       </c>
       <c r="W6" s="6">
         <f t="shared" si="13"/>
@@ -25300,7 +25350,7 @@
       </c>
       <c r="AF6" s="6">
         <f t="shared" si="14"/>
-        <v>-6.0685335921795325</v>
+        <v>-8.8445985199152641</v>
       </c>
       <c r="AG6" s="6">
         <f t="shared" si="15"/>
@@ -25359,12 +25409,12 @@
         <f t="shared" si="18"/>
         <v>1.0282658354187719</v>
       </c>
-      <c r="O7">
-        <v>42</v>
+      <c r="O7" s="7">
+        <v>42.018999999999998</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="4"/>
-        <v>91.304347826086953</v>
+        <v>102.46012567635776</v>
       </c>
       <c r="S7" s="6">
         <f t="shared" si="5"/>
@@ -25380,7 +25430,7 @@
       </c>
       <c r="V7" s="6">
         <f t="shared" si="0"/>
-        <v>-7.3372627056446591</v>
+        <v>4.1902670260969321</v>
       </c>
       <c r="W7" s="6">
         <f t="shared" si="13"/>
@@ -25412,7 +25462,7 @@
       </c>
       <c r="AF7" s="6">
         <f t="shared" si="14"/>
-        <v>-14.791211362207775</v>
+        <v>-10.365764655087911</v>
       </c>
       <c r="AG7" s="6">
         <f t="shared" si="15"/>
@@ -25471,12 +25521,12 @@
         <f t="shared" si="18"/>
         <v>1.0408326565455632</v>
       </c>
-      <c r="O8">
-        <v>44</v>
+      <c r="O8" s="7">
+        <v>41.238300000000002</v>
       </c>
       <c r="P8" s="8">
         <f t="shared" si="4"/>
-        <v>95.652173913043484</v>
+        <v>100.5564482895677</v>
       </c>
       <c r="S8" s="6">
         <f t="shared" si="5"/>
@@ -25492,7 +25542,7 @@
       </c>
       <c r="V8" s="6">
         <f t="shared" si="0"/>
-        <v>-1.7275934690543795</v>
+        <v>3.2724886234296093</v>
       </c>
       <c r="W8" s="6">
         <f t="shared" si="13"/>
@@ -25524,7 +25574,7 @@
       </c>
       <c r="AF8" s="6">
         <f t="shared" si="14"/>
-        <v>-9.1815421256174972</v>
+        <v>-11.283543057755233</v>
       </c>
       <c r="AG8" s="6">
         <f t="shared" si="15"/>
@@ -25583,12 +25633,12 @@
         <f t="shared" si="18"/>
         <v>1.0705097510421397</v>
       </c>
-      <c r="O9">
-        <v>43</v>
+      <c r="O9" s="7">
+        <v>44.798699999999997</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" si="4"/>
-        <v>93.478260869565219</v>
+        <v>109.23821205020225</v>
       </c>
       <c r="S9" s="6">
         <f t="shared" si="5"/>
@@ -25604,7 +25654,7 @@
       </c>
       <c r="V9" s="6">
         <f t="shared" si="0"/>
-        <v>-1.4722158168302764</v>
+        <v>14.107986593935401</v>
       </c>
       <c r="W9" s="6">
         <f t="shared" si="13"/>
@@ -25636,7 +25686,7 @@
       </c>
       <c r="AF9" s="6">
         <f t="shared" si="14"/>
-        <v>-8.9261644733933938</v>
+        <v>-0.44804508724944192</v>
       </c>
       <c r="AG9" s="6">
         <f t="shared" si="15"/>
@@ -25695,12 +25745,12 @@
         <f t="shared" si="18"/>
         <v>1.0816955184245307</v>
       </c>
-      <c r="O10">
-        <v>46</v>
+      <c r="O10" s="7">
+        <v>43.021500000000003</v>
       </c>
       <c r="P10" s="8">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>104.90464544100114</v>
       </c>
       <c r="S10" s="6">
         <f t="shared" si="5"/>
@@ -25716,7 +25766,7 @@
       </c>
       <c r="V10" s="6">
         <f t="shared" si="0"/>
-        <v>6.0543300300867182</v>
+        <v>10.84249132054345</v>
       </c>
       <c r="W10" s="6">
         <f t="shared" si="13"/>
@@ -25748,7 +25798,7 @@
       </c>
       <c r="AF10" s="6">
         <f t="shared" si="14"/>
-        <v>-1.399618626476399</v>
+        <v>-3.7135403606413924</v>
       </c>
       <c r="AG10" s="6">
         <f t="shared" si="15"/>
@@ -25807,12 +25857,12 @@
         <f t="shared" si="18"/>
         <v>1.0693137418718699</v>
       </c>
-      <c r="O11">
-        <v>40</v>
+      <c r="O11" s="7">
+        <v>41.892200000000003</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" si="4"/>
-        <v>86.956521739130437</v>
+        <v>102.15093355051562</v>
       </c>
       <c r="S11" s="6">
         <f t="shared" si="5"/>
@@ -25828,7 +25878,7 @@
       </c>
       <c r="V11" s="6">
         <f t="shared" si="0"/>
-        <v>-9.3301915671605151</v>
+        <v>6.7741300953638204</v>
       </c>
       <c r="W11" s="6">
         <f t="shared" si="13"/>
@@ -25860,7 +25910,7 @@
       </c>
       <c r="AF11" s="6">
         <f t="shared" si="14"/>
-        <v>-16.784140223723632</v>
+        <v>-7.7819015858210223</v>
       </c>
       <c r="AG11" s="6">
         <f t="shared" si="15"/>
@@ -25919,12 +25969,12 @@
         <f t="shared" si="18"/>
         <v>1.0971724523243458</v>
       </c>
-      <c r="O12">
-        <v>40</v>
+      <c r="O12" s="7">
+        <v>45.073900000000002</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" si="4"/>
-        <v>86.956521739130437</v>
+        <v>109.90926625392281</v>
       </c>
       <c r="S12" s="6">
         <f t="shared" si="5"/>
@@ -25940,7 +25990,7 @@
       </c>
       <c r="V12" s="6">
         <f t="shared" si="0"/>
-        <v>-7.0060377970204621</v>
+        <v>16.418655159442004</v>
       </c>
       <c r="W12" s="6">
         <f t="shared" si="13"/>
@@ -25972,7 +26022,7 @@
       </c>
       <c r="AF12" s="6">
         <f t="shared" si="14"/>
-        <v>-14.459986453583578</v>
+        <v>1.8626234782571611</v>
       </c>
       <c r="AG12" s="6">
         <f t="shared" si="15"/>
@@ -26031,12 +26081,12 @@
         <f t="shared" si="18"/>
         <v>1.0974075783136075</v>
       </c>
-      <c r="O13">
-        <v>42</v>
+      <c r="O13" s="7">
+        <v>45.073900000000002</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" si="4"/>
-        <v>91.304347826086953</v>
+        <v>109.90926625392281</v>
       </c>
       <c r="S13" s="6">
         <f t="shared" si="5"/>
@@ -26052,7 +26102,7 @@
       </c>
       <c r="V13" s="6">
         <f t="shared" si="0"/>
-        <v>-2.353368983622778</v>
+        <v>16.19230755589648</v>
       </c>
       <c r="W13" s="6">
         <f t="shared" si="13"/>
@@ -26084,7 +26134,7 @@
       </c>
       <c r="AF13" s="6">
         <f t="shared" si="14"/>
-        <v>-9.8073176401858948</v>
+        <v>1.6362758747116377</v>
       </c>
       <c r="AG13" s="6">
         <f t="shared" si="15"/>
@@ -26143,12 +26193,12 @@
         <f t="shared" si="18"/>
         <v>1.1122623749527385</v>
       </c>
-      <c r="O14">
-        <v>50</v>
+      <c r="O14" s="7">
+        <v>43.216999999999999</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" si="4"/>
-        <v>108.69565217391303</v>
+        <v>105.38135727540288</v>
       </c>
       <c r="S14" s="6">
         <f t="shared" si="5"/>
@@ -26164,7 +26214,7 @@
       </c>
       <c r="V14" s="6">
         <f t="shared" si="0"/>
-        <v>16.178740784880262</v>
+        <v>13.082135743958318</v>
       </c>
       <c r="W14" s="6">
         <f t="shared" si="13"/>
@@ -26196,7 +26246,7 @@
       </c>
       <c r="AF14" s="6">
         <f t="shared" si="14"/>
-        <v>8.7247921283171443</v>
+        <v>-1.4738959372265246</v>
       </c>
       <c r="AG14" s="6">
         <f t="shared" si="15"/>
@@ -26255,12 +26305,12 @@
         <f t="shared" si="18"/>
         <v>1.1062439950439702</v>
       </c>
-      <c r="O15">
-        <v>48</v>
+      <c r="O15" s="7">
+        <v>42.2864</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" si="4"/>
-        <v>104.34782608695652</v>
+        <v>103.11216017517634</v>
       </c>
       <c r="S15" s="6">
         <f t="shared" si="5"/>
@@ -26276,7 +26326,7 @@
       </c>
       <c r="V15" s="6">
         <f t="shared" si="0"/>
-        <v>11.306203091192968</v>
+        <v>10.11495600159693</v>
       </c>
       <c r="W15" s="6">
         <f t="shared" si="13"/>
@@ -26308,7 +26358,7 @@
       </c>
       <c r="AF15" s="6">
         <f t="shared" si="14"/>
-        <v>3.8522544346298506</v>
+        <v>-4.4410756795879127</v>
       </c>
       <c r="AG15" s="6">
         <f t="shared" si="15"/>
@@ -26367,12 +26417,12 @@
         <f t="shared" si="18"/>
         <v>1.1219726332154687</v>
       </c>
-      <c r="O16">
-        <v>50</v>
+      <c r="O16" s="7">
+        <v>45.514299999999999</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" si="4"/>
-        <v>108.69565217391303</v>
+        <v>110.98314805377211</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="5"/>
@@ -26388,7 +26438,7 @@
       </c>
       <c r="V16" s="6">
         <f t="shared" si="0"/>
-        <v>16.546973008330006</v>
+        <v>18.629630560738377</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="13"/>
@@ -26420,7 +26470,7 @@
       </c>
       <c r="AF16" s="6">
         <f t="shared" si="14"/>
-        <v>9.0930243517668892</v>
+        <v>4.0735988795535345</v>
       </c>
       <c r="AG16" s="6">
         <f t="shared" si="15"/>
@@ -26480,12 +26530,12 @@
         <f t="shared" si="18"/>
         <v>1.1134930010707258</v>
       </c>
-      <c r="O17">
-        <v>47</v>
+      <c r="O17" s="7">
+        <v>44.316499999999998</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" si="4"/>
-        <v>102.17391304347827</v>
+        <v>108.06240413946809</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="5"/>
@@ -26501,7 +26551,7 @@
       </c>
       <c r="V17" s="6">
         <f t="shared" si="0"/>
-        <v>9.3475610846854984</v>
+        <v>14.950809599675694</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="13"/>
@@ -26533,7 +26583,7 @@
       </c>
       <c r="AF17" s="6">
         <f t="shared" si="14"/>
-        <v>1.8936124281223812</v>
+        <v>0.39477791849085087</v>
       </c>
       <c r="AG17" s="6">
         <f t="shared" si="15"/>
@@ -26592,12 +26642,12 @@
         <f t="shared" si="18"/>
         <v>1.1205286896100455</v>
       </c>
-      <c r="O18">
-        <v>50</v>
+      <c r="O18" s="7">
+        <v>41.991199999999999</v>
       </c>
       <c r="P18" s="8">
         <f t="shared" si="4"/>
-        <v>108.69565217391303</v>
+        <v>102.39233749734822</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="5"/>
@@ -26613,7 +26663,7 @@
       </c>
       <c r="V18" s="6">
         <f t="shared" si="0"/>
-        <v>15.911748865377589</v>
+        <v>9.9377574404743463</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="13"/>
@@ -26645,7 +26695,7 @@
       </c>
       <c r="AF18" s="6">
         <f t="shared" si="14"/>
-        <v>8.4578002088144721</v>
+        <v>-4.6182742407104964</v>
       </c>
       <c r="AG18" s="6">
         <f t="shared" si="15"/>
@@ -26704,12 +26754,12 @@
         <f t="shared" si="18"/>
         <v>1.1194363747068836</v>
       </c>
-      <c r="O19">
-        <v>47</v>
+      <c r="O19" s="7">
+        <v>43.907600000000002</v>
       </c>
       <c r="P19" s="8">
         <f t="shared" si="4"/>
-        <v>102.17391304347827</v>
+        <v>107.06533268633824</v>
       </c>
       <c r="S19" s="6">
         <f t="shared" si="5"/>
@@ -26725,7 +26775,7 @@
       </c>
       <c r="V19" s="6">
         <f t="shared" si="0"/>
-        <v>9.3734566521904625</v>
+        <v>14.049740929668564</v>
       </c>
       <c r="W19" s="6">
         <f t="shared" si="13"/>
@@ -26757,7 +26807,7 @@
       </c>
       <c r="AF19" s="6">
         <f t="shared" si="14"/>
-        <v>1.9195079956273453</v>
+        <v>-0.50629075151627845</v>
       </c>
       <c r="AG19" s="6">
         <f t="shared" si="15"/>
@@ -26816,12 +26866,12 @@
         <f t="shared" si="18"/>
         <v>1.1273934983680951</v>
       </c>
-      <c r="O20">
-        <v>47</v>
+      <c r="O20" s="7">
+        <v>44.798699999999997</v>
       </c>
       <c r="P20" s="8">
         <f t="shared" si="4"/>
-        <v>102.17391304347827</v>
+        <v>109.23821205020225</v>
       </c>
       <c r="S20" s="6">
         <f t="shared" si="5"/>
@@ -26837,7 +26887,7 @@
       </c>
       <c r="V20" s="6">
         <f t="shared" si="0"/>
-        <v>9.8168137704737006</v>
+        <v>16.502267579589727</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="13"/>
@@ -26869,7 +26919,7 @@
       </c>
       <c r="AF20" s="6">
         <f t="shared" si="14"/>
-        <v>2.3628651139105834</v>
+        <v>1.9462358984048844</v>
       </c>
       <c r="AG20" s="6">
         <f t="shared" si="15"/>
@@ -26928,12 +26978,12 @@
         <f t="shared" si="18"/>
         <v>1.1261214437776428</v>
       </c>
-      <c r="O21">
-        <v>49</v>
+      <c r="O21" s="7">
+        <v>44.827599999999997</v>
       </c>
       <c r="P21" s="8">
         <f t="shared" si="4"/>
-        <v>106.5217391304348</v>
+        <v>109.30868249528774</v>
       </c>
       <c r="S21" s="6">
         <f t="shared" si="5"/>
@@ -26949,7 +26999,7 @@
       </c>
       <c r="V21" s="6">
         <f t="shared" si="0"/>
-        <v>13.60624456697391</v>
+        <v>16.188918737297538</v>
       </c>
       <c r="W21" s="6">
         <f t="shared" si="13"/>
@@ -26981,7 +27031,7 @@
       </c>
       <c r="AF21" s="6">
         <f t="shared" si="14"/>
-        <v>6.1522959104107926</v>
+        <v>1.6328870561126951</v>
       </c>
       <c r="AG21" s="6">
         <f t="shared" si="15"/>
@@ -27040,12 +27090,12 @@
         <f t="shared" si="18"/>
         <v>1.1523072501919556</v>
       </c>
-      <c r="O22">
-        <v>40</v>
+      <c r="O22" s="7">
+        <v>43.147300000000001</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" si="4"/>
-        <v>86.956521739130437</v>
+        <v>105.21139914313791</v>
       </c>
       <c r="S22" s="6">
         <f t="shared" si="5"/>
@@ -27061,7 +27111,7 @@
       </c>
       <c r="V22" s="6">
         <f t="shared" si="0"/>
-        <v>-4.6540976202213029</v>
+        <v>14.402243149221619</v>
       </c>
       <c r="W22" s="6">
         <f t="shared" si="13"/>
@@ -27093,7 +27143,7 @@
       </c>
       <c r="AF22" s="6">
         <f t="shared" si="14"/>
-        <v>-12.108046276784421</v>
+        <v>-0.15378853196322417</v>
       </c>
       <c r="AG22" s="6">
         <f t="shared" si="15"/>
@@ -27152,12 +27202,12 @@
         <f t="shared" si="18"/>
         <v>1.1500883453769726</v>
       </c>
-      <c r="O23">
-        <v>44</v>
+      <c r="O23" s="7">
+        <v>47.9983</v>
       </c>
       <c r="P23" s="8">
         <f t="shared" si="4"/>
-        <v>95.652173913043484</v>
+        <v>117.04019253793578</v>
       </c>
       <c r="S23" s="6">
         <f t="shared" si="5"/>
@@ -27173,7 +27223,7 @@
       </c>
       <c r="V23" s="6">
         <f t="shared" si="0"/>
-        <v>4.4192291376307136</v>
+        <v>24.599126973053401</v>
       </c>
       <c r="W23" s="6">
         <f t="shared" si="13"/>
@@ -27205,7 +27255,7 @@
       </c>
       <c r="AF23" s="6">
         <f t="shared" si="14"/>
-        <v>-3.0347195189324037</v>
+        <v>10.043095291868559</v>
       </c>
       <c r="AG23" s="6">
         <f t="shared" si="15"/>
@@ -27264,12 +27314,12 @@
         <f t="shared" si="18"/>
         <v>1.1440004619661983</v>
       </c>
-      <c r="O24">
-        <v>45</v>
+      <c r="O24" s="7">
+        <v>43.141100000000002</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" si="4"/>
-        <v>97.826086956521735</v>
+        <v>105.19628091616455</v>
       </c>
       <c r="S24" s="6">
         <f t="shared" si="5"/>
@@ -27285,7 +27335,7 @@
       </c>
       <c r="V24" s="6">
         <f t="shared" si="0"/>
-        <v>5.8716774207162734</v>
+        <v>13.135344210859982</v>
       </c>
       <c r="W24" s="6">
         <f t="shared" si="13"/>
@@ -27317,7 +27367,7 @@
       </c>
       <c r="AF24" s="6">
         <f t="shared" si="14"/>
-        <v>-1.5822712358468438</v>
+        <v>-1.4206874703248609</v>
       </c>
       <c r="AG24" s="6">
         <f t="shared" si="15"/>
@@ -27376,12 +27426,12 @@
         <f t="shared" si="18"/>
         <v>1.1369039425729524</v>
       </c>
-      <c r="O25">
-        <v>46</v>
+      <c r="O25" s="7">
+        <v>44.579900000000002</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>108.70468494346514</v>
       </c>
       <c r="S25" s="6">
         <f t="shared" si="5"/>
@@ -27397,7 +27447,7 @@
       </c>
       <c r="V25" s="6">
         <f t="shared" si="0"/>
-        <v>7.1832203822194201</v>
+        <v>15.529691078838786</v>
       </c>
       <c r="W25" s="6">
         <f t="shared" si="13"/>
@@ -27429,7 +27479,7 @@
       </c>
       <c r="AF25" s="6">
         <f t="shared" si="14"/>
-        <v>-0.27072827434369717</v>
+        <v>0.97365939765394316</v>
       </c>
       <c r="AG25" s="6">
         <f t="shared" si="15"/>
@@ -27488,12 +27538,12 @@
         <f t="shared" si="18"/>
         <v>1.1546158401502808</v>
       </c>
-      <c r="O26">
-        <v>49</v>
+      <c r="O26" s="7">
+        <v>43.141100000000002</v>
       </c>
       <c r="P26" s="8">
         <f t="shared" si="4"/>
-        <v>106.5217391304348</v>
+        <v>105.19628091616455</v>
       </c>
       <c r="S26" s="6">
         <f t="shared" si="5"/>
@@ -27509,7 +27559,7 @@
       </c>
       <c r="V26" s="6">
         <f t="shared" si="0"/>
-        <v>14.782915188316782</v>
+        <v>13.5308011444298</v>
       </c>
       <c r="W26" s="6">
         <f t="shared" si="13"/>
@@ -27541,7 +27591,7 @@
       </c>
       <c r="AF26" s="6">
         <f t="shared" si="14"/>
-        <v>7.3289665317536645</v>
+        <v>-1.0252305367550427</v>
       </c>
       <c r="AG26" s="6">
         <f t="shared" si="15"/>
@@ -27600,12 +27650,12 @@
         <f t="shared" si="18"/>
         <v>1.1540302902049215</v>
       </c>
-      <c r="O27">
-        <v>40</v>
+      <c r="O27" s="7">
+        <v>41.010100000000001</v>
       </c>
       <c r="P27" s="8">
         <f t="shared" si="4"/>
-        <v>86.956521739130437</v>
+        <v>100</v>
       </c>
       <c r="S27" s="6">
         <f t="shared" si="5"/>
@@ -27621,7 +27671,7 @@
       </c>
       <c r="V27" s="6">
         <f t="shared" si="0"/>
-        <v>-5.8259867382441</v>
+        <v>8.1502074992717688</v>
       </c>
       <c r="W27" s="6">
         <f t="shared" si="13"/>
@@ -27653,7 +27703,7 @@
       </c>
       <c r="AF27" s="6">
         <f t="shared" si="14"/>
-        <v>-13.279935394807218</v>
+        <v>-6.4058241819130739</v>
       </c>
       <c r="AG27" s="6">
         <f t="shared" si="15"/>
@@ -27712,12 +27762,12 @@
         <f t="shared" si="18"/>
         <v>1.1633103925125066</v>
       </c>
-      <c r="O28">
-        <v>42</v>
+      <c r="O28" s="7">
+        <v>46.370699999999999</v>
       </c>
       <c r="P28" s="8">
         <f t="shared" si="4"/>
-        <v>91.304347826086953</v>
+        <v>113.07141411505945</v>
       </c>
       <c r="S28" s="6">
         <f t="shared" si="5"/>
@@ -27733,7 +27783,7 @@
       </c>
       <c r="V28" s="6">
         <f t="shared" si="0"/>
-        <v>-0.41222417608889572</v>
+        <v>20.969895287083823</v>
       </c>
       <c r="W28" s="6">
         <f t="shared" si="13"/>
@@ -27765,7 +27815,7 @@
       </c>
       <c r="AF28" s="6">
         <f t="shared" si="14"/>
-        <v>-7.8661728326520128</v>
+        <v>6.41386360589898</v>
       </c>
       <c r="AG28" s="6">
         <f t="shared" si="15"/>
@@ -27824,12 +27874,12 @@
         <f t="shared" si="18"/>
         <v>1.1674962116293037</v>
       </c>
-      <c r="O29">
-        <v>41</v>
+      <c r="O29" s="7">
+        <v>44.316499999999998</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" si="4"/>
-        <v>89.130434782608688</v>
+        <v>108.06240413946809</v>
       </c>
       <c r="S29" s="6">
         <f t="shared" si="5"/>
@@ -27845,7 +27895,7 @@
       </c>
       <c r="V29" s="6">
         <f t="shared" si="0"/>
-        <v>-2.7289905333667424</v>
+        <v>16.53181148219852</v>
       </c>
       <c r="W29" s="6">
         <f t="shared" si="13"/>
@@ -27877,7 +27927,7 @@
       </c>
       <c r="AF29" s="6">
         <f t="shared" si="14"/>
-        <v>-10.18293918992986</v>
+        <v>1.9757798010136778</v>
       </c>
       <c r="AG29" s="6">
         <f t="shared" si="15"/>
@@ -27936,12 +27986,12 @@
         <f t="shared" si="18"/>
         <v>1.1694154604192248</v>
       </c>
-      <c r="O30">
-        <v>50</v>
+      <c r="O30" s="7">
+        <v>42.857799999999997</v>
       </c>
       <c r="P30" s="8">
         <f t="shared" si="4"/>
-        <v>108.69565217391303</v>
+        <v>104.50547548043043</v>
       </c>
       <c r="S30" s="6">
         <f t="shared" si="5"/>
@@ -27957,7 +28007,7 @@
       </c>
       <c r="V30" s="6">
         <f t="shared" si="0"/>
-        <v>17.014173493337136</v>
+        <v>13.08294069803409</v>
       </c>
       <c r="W30" s="6">
         <f t="shared" si="13"/>
@@ -27989,7 +28039,7 @@
       </c>
       <c r="AF30" s="6">
         <f t="shared" si="14"/>
-        <v>9.5602248367740188</v>
+        <v>-1.4730909831507528</v>
       </c>
       <c r="AG30" s="6">
         <f t="shared" si="15"/>
@@ -28048,12 +28098,12 @@
         <f t="shared" si="18"/>
         <v>1.1706589969310566</v>
       </c>
-      <c r="O31">
-        <v>43</v>
+      <c r="O31" s="7">
+        <v>44.222900000000003</v>
       </c>
       <c r="P31" s="8">
         <f t="shared" si="4"/>
-        <v>93.478260869565219</v>
+        <v>107.83416768064453</v>
       </c>
       <c r="S31" s="6">
         <f t="shared" si="5"/>
@@ -28069,7 +28119,7 @@
       </c>
       <c r="V31" s="6">
         <f t="shared" si="0"/>
-        <v>1.7719812956395644</v>
+        <v>16.058547038521425</v>
       </c>
       <c r="W31" s="6">
         <f t="shared" si="13"/>
@@ -28101,7 +28151,7 @@
       </c>
       <c r="AF31" s="6">
         <f t="shared" si="14"/>
-        <v>-5.6819673609235526</v>
+        <v>1.5025153573365824</v>
       </c>
       <c r="AG31" s="6">
         <f t="shared" si="15"/>
@@ -28160,12 +28210,12 @@
         <f t="shared" si="18"/>
         <v>1.1985375517082297</v>
       </c>
-      <c r="O32">
-        <v>40</v>
+      <c r="O32" s="7">
+        <v>42.662300000000002</v>
       </c>
       <c r="P32" s="8">
         <f t="shared" si="4"/>
-        <v>86.956521739130437</v>
+        <v>104.02876364602866</v>
       </c>
       <c r="S32" s="6">
         <f t="shared" si="5"/>
@@ -28181,7 +28231,7 @@
       </c>
       <c r="V32" s="6">
         <f t="shared" si="0"/>
-        <v>-3.3634730864320108</v>
+        <v>14.562445994422108</v>
       </c>
       <c r="W32" s="6">
         <f t="shared" si="13"/>
@@ -28213,7 +28263,7 @@
       </c>
       <c r="AF32" s="6">
         <f t="shared" si="14"/>
-        <v>-10.817421742995128</v>
+        <v>6.4143132372649347E-3</v>
       </c>
       <c r="AG32" s="6">
         <f t="shared" si="15"/>
@@ -28272,12 +28322,12 @@
         <f t="shared" si="18"/>
         <v>1.2065950563081984</v>
       </c>
-      <c r="O33">
-        <v>41</v>
+      <c r="O33" s="7">
+        <v>46.370699999999999</v>
       </c>
       <c r="P33" s="8">
         <f t="shared" si="4"/>
-        <v>89.130434782608688</v>
+        <v>113.07141411505945</v>
       </c>
       <c r="S33" s="6">
         <f t="shared" si="5"/>
@@ -28293,7 +28343,7 @@
       </c>
       <c r="V33" s="6">
         <f t="shared" si="0"/>
-        <v>-0.48109885345432174</v>
+        <v>23.310775767624417</v>
       </c>
       <c r="W33" s="6">
         <f t="shared" si="13"/>
@@ -28325,7 +28375,7 @@
       </c>
       <c r="AF33" s="6">
         <f t="shared" si="14"/>
-        <v>-7.9350475100174389</v>
+        <v>8.7547440864395742</v>
       </c>
       <c r="AG33" s="6">
         <f t="shared" si="15"/>
@@ -28384,12 +28434,12 @@
         <f t="shared" si="18"/>
         <v>1.1995418478632325</v>
       </c>
-      <c r="O34">
-        <v>45</v>
+      <c r="O34" s="7">
+        <v>42.1706</v>
       </c>
       <c r="P34" s="8">
         <f t="shared" si="4"/>
-        <v>97.826086956521735</v>
+        <v>102.82979071009338</v>
       </c>
       <c r="S34" s="6">
         <f t="shared" si="5"/>
@@ -28405,7 +28455,7 @@
       </c>
       <c r="V34" s="6">
         <f t="shared" si="0"/>
-        <v>7.984758175759632</v>
+        <v>12.973140642723424</v>
       </c>
       <c r="W34" s="6">
         <f t="shared" si="13"/>
@@ -28437,7 +28487,7 @@
       </c>
       <c r="AF34" s="6">
         <f t="shared" si="14"/>
-        <v>0.53080951919651476</v>
+        <v>-1.582891038461419</v>
       </c>
       <c r="AG34" s="6">
         <f t="shared" si="15"/>
@@ -28496,12 +28546,12 @@
         <f t="shared" si="18"/>
         <v>1.1838692325218712</v>
       </c>
-      <c r="O35">
-        <v>48</v>
+      <c r="O35" s="7">
+        <v>42.094900000000003</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" si="4"/>
-        <v>104.34782608695652</v>
+        <v>102.6452020355961</v>
       </c>
       <c r="S35" s="6">
         <f t="shared" si="5"/>
@@ -28517,7 +28567,7 @@
       </c>
       <c r="V35" s="6">
         <f t="shared" ref="V35:V66" si="20">LN((P35*N35/100)/I35)*100</f>
-        <v>12.86653438960407</v>
+        <v>11.221394485435694</v>
       </c>
       <c r="W35" s="6">
         <f t="shared" si="13"/>
@@ -28549,7 +28599,7 @@
       </c>
       <c r="AF35" s="6">
         <f t="shared" si="14"/>
-        <v>5.4125857330409524</v>
+        <v>-3.3346371957491492</v>
       </c>
       <c r="AG35" s="6">
         <f t="shared" si="15"/>
@@ -28608,12 +28658,12 @@
         <f t="shared" si="18"/>
         <v>1.2029740785283709</v>
       </c>
-      <c r="O36">
-        <v>43</v>
+      <c r="O36" s="7">
+        <v>43.141100000000002</v>
       </c>
       <c r="P36" s="8">
         <f t="shared" si="4"/>
-        <v>93.478260869565219</v>
+        <v>105.19628091616455</v>
       </c>
       <c r="S36" s="6">
         <f t="shared" si="5"/>
@@ -28629,7 +28679,7 @@
       </c>
       <c r="V36" s="6">
         <f t="shared" si="20"/>
-        <v>3.2190855752857379</v>
+        <v>15.028989773105184</v>
       </c>
       <c r="W36" s="6">
         <f t="shared" si="13"/>
@@ -28661,7 +28711,7 @@
       </c>
       <c r="AF36" s="6">
         <f t="shared" si="14"/>
-        <v>-4.2348630812773793</v>
+        <v>0.47295809192034177</v>
       </c>
       <c r="AG36" s="6">
         <f t="shared" si="15"/>
@@ -28720,12 +28770,12 @@
         <f t="shared" si="18"/>
         <v>1.2189557779642708</v>
       </c>
-      <c r="O37">
-        <v>48</v>
+      <c r="O37" s="7">
+        <v>43.141100000000002</v>
       </c>
       <c r="P37" s="8">
         <f t="shared" si="4"/>
-        <v>104.34782608695652</v>
+        <v>105.19628091616455</v>
       </c>
       <c r="S37" s="6">
         <f t="shared" si="5"/>
@@ -28741,7 +28791,7 @@
       </c>
       <c r="V37" s="6">
         <f t="shared" si="20"/>
-        <v>15.290703662588239</v>
+        <v>16.100518338974858</v>
       </c>
       <c r="W37" s="6">
         <f t="shared" si="13"/>
@@ -28773,7 +28823,7 @@
       </c>
       <c r="AF37" s="6">
         <f t="shared" si="14"/>
-        <v>7.8367550060251219</v>
+        <v>1.5444866577900154</v>
       </c>
       <c r="AG37" s="6">
         <f t="shared" si="15"/>
@@ -28832,12 +28882,12 @@
         <f t="shared" si="18"/>
         <v>1.217243270762365</v>
       </c>
-      <c r="O38">
-        <v>48</v>
+      <c r="O38" s="7">
+        <v>42.662300000000002</v>
       </c>
       <c r="P38" s="8">
         <f t="shared" si="4"/>
-        <v>104.34782608695652</v>
+        <v>104.02876364602866</v>
       </c>
       <c r="S38" s="6">
         <f t="shared" si="5"/>
@@ -28853,7 +28903,7 @@
       </c>
       <c r="V38" s="6">
         <f t="shared" si="20"/>
-        <v>14.901875445201446</v>
+        <v>14.595638846660087</v>
       </c>
       <c r="W38" s="6">
         <f t="shared" si="13"/>
@@ -28885,7 +28935,7 @@
       </c>
       <c r="AF38" s="6">
         <f t="shared" si="14"/>
-        <v>7.4479267886383287</v>
+        <v>3.9607165475244344E-2</v>
       </c>
       <c r="AG38" s="6">
         <f t="shared" si="15"/>
@@ -28944,12 +28994,12 @@
         <f t="shared" si="18"/>
         <v>1.1961632474600021</v>
       </c>
-      <c r="O39">
-        <v>46</v>
+      <c r="O39" s="7">
+        <v>42.688800000000001</v>
       </c>
       <c r="P39" s="8">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>104.09338187422124</v>
       </c>
       <c r="S39" s="6">
         <f t="shared" si="5"/>
@@ -28965,7 +29015,7 @@
       </c>
       <c r="V39" s="6">
         <f t="shared" si="20"/>
-        <v>8.6507195469033427</v>
+        <v>12.662540838562746</v>
       </c>
       <c r="W39" s="6">
         <f t="shared" si="13"/>
@@ -28997,7 +29047,7 @@
       </c>
       <c r="AF39" s="6">
         <f t="shared" si="14"/>
-        <v>1.1967708903402254</v>
+        <v>-1.8934908426220964</v>
       </c>
       <c r="AG39" s="6">
         <f t="shared" si="15"/>
@@ -29056,12 +29106,12 @@
         <f t="shared" si="18"/>
         <v>1.2244676165947048</v>
       </c>
-      <c r="O40">
-        <v>41</v>
+      <c r="O40" s="7">
+        <v>43.907600000000002</v>
       </c>
       <c r="P40" s="8">
         <f t="shared" si="4"/>
-        <v>89.130434782608688</v>
+        <v>107.06533268633824</v>
       </c>
       <c r="S40" s="6">
         <f t="shared" si="5"/>
@@ -29077,7 +29127,7 @@
       </c>
       <c r="V40" s="6">
         <f t="shared" si="20"/>
-        <v>-0.77544831750779641</v>
+        <v>17.558389460545381</v>
       </c>
       <c r="W40" s="6">
         <f t="shared" si="13"/>
@@ -29109,7 +29159,7 @@
       </c>
       <c r="AF40" s="6">
         <f t="shared" si="14"/>
-        <v>-8.2293969740709141</v>
+        <v>3.0023577793605387</v>
       </c>
       <c r="AG40" s="6">
         <f t="shared" si="15"/>
@@ -29168,12 +29218,12 @@
         <f t="shared" si="18"/>
         <v>1.2237932896058019</v>
       </c>
-      <c r="O41">
-        <v>41</v>
+      <c r="O41" s="7">
+        <v>43.021500000000003</v>
       </c>
       <c r="P41" s="8">
         <f t="shared" si="4"/>
-        <v>89.130434782608688</v>
+        <v>104.90464544100114</v>
       </c>
       <c r="S41" s="6">
         <f t="shared" si="5"/>
@@ -29189,7 +29239,7 @@
       </c>
       <c r="V41" s="6">
         <f t="shared" si="20"/>
-        <v>-1.0884704167815218</v>
+        <v>15.206623852153969</v>
       </c>
       <c r="W41" s="6">
         <f t="shared" si="13"/>
@@ -29221,7 +29271,7 @@
       </c>
       <c r="AF41" s="6">
         <f t="shared" si="14"/>
-        <v>-8.5424190733446395</v>
+        <v>0.65059217096912647</v>
       </c>
       <c r="AG41" s="6">
         <f t="shared" si="15"/>
@@ -29280,12 +29330,12 @@
         <f t="shared" si="18"/>
         <v>1.2209916289174163</v>
       </c>
-      <c r="O42">
-        <v>49</v>
+      <c r="O42" s="7">
+        <v>44.579900000000002</v>
       </c>
       <c r="P42" s="8">
         <f t="shared" si="4"/>
-        <v>106.5217391304348</v>
+        <v>108.70468494346514</v>
       </c>
       <c r="S42" s="6">
         <f t="shared" si="5"/>
@@ -29301,7 +29351,7 @@
       </c>
       <c r="V42" s="6">
         <f t="shared" si="20"/>
-        <v>16.249221868621724</v>
+        <v>18.277802403087918</v>
       </c>
       <c r="W42" s="6">
         <f t="shared" si="13"/>
@@ -29333,7 +29383,7 @@
       </c>
       <c r="AF42" s="6">
         <f t="shared" si="14"/>
-        <v>8.795273212058607</v>
+        <v>3.7217707219030753</v>
       </c>
       <c r="AG42" s="6">
         <f t="shared" si="15"/>
@@ -29392,12 +29442,12 @@
         <f t="shared" si="18"/>
         <v>1.1984352875767472</v>
       </c>
-      <c r="O43">
-        <v>42</v>
+      <c r="O43" s="7">
+        <v>45.073900000000002</v>
       </c>
       <c r="P43" s="8">
         <f t="shared" si="4"/>
-        <v>91.304347826086953</v>
+        <v>109.90926625392281</v>
       </c>
       <c r="S43" s="6">
         <f t="shared" si="5"/>
@@ -29413,7 +29463,7 @@
       </c>
       <c r="V43" s="6">
         <f t="shared" si="20"/>
-        <v>-1.2884380347332898</v>
+        <v>17.257238504785967</v>
       </c>
       <c r="W43" s="6">
         <f t="shared" si="13"/>
@@ -29445,7 +29495,7 @@
       </c>
       <c r="AF43" s="6">
         <f t="shared" si="14"/>
-        <v>-8.7423866912964066</v>
+        <v>2.7012068236011242</v>
       </c>
       <c r="AG43" s="6">
         <f t="shared" si="15"/>
@@ -29504,12 +29554,12 @@
         <f t="shared" si="18"/>
         <v>1.1892723165222596</v>
       </c>
-      <c r="O44">
-        <v>41</v>
+      <c r="O44" s="7">
+        <v>42.018999999999998</v>
       </c>
       <c r="P44" s="8">
         <f t="shared" si="4"/>
-        <v>89.130434782608688</v>
+        <v>102.46012567635776</v>
       </c>
       <c r="S44" s="6">
         <f t="shared" si="5"/>
@@ -29525,7 +29575,7 @@
       </c>
       <c r="V44" s="6">
         <f t="shared" si="20"/>
-        <v>-4.7275236705764012</v>
+        <v>9.2097612190712308</v>
       </c>
       <c r="W44" s="6">
         <f t="shared" si="13"/>
@@ -29557,7 +29607,7 @@
       </c>
       <c r="AF44" s="6">
         <f t="shared" si="14"/>
-        <v>-12.181472327139518</v>
+        <v>-5.3462704621136119</v>
       </c>
       <c r="AG44" s="6">
         <f t="shared" si="15"/>
@@ -29616,12 +29666,12 @@
         <f t="shared" si="18"/>
         <v>1.19051406213407</v>
       </c>
-      <c r="O45">
-        <v>46</v>
+      <c r="O45" s="7">
+        <v>43.216999999999999</v>
       </c>
       <c r="P45" s="8">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>105.38135727540288</v>
       </c>
       <c r="S45" s="6">
         <f t="shared" si="5"/>
@@ -29637,7 +29687,7 @@
       </c>
       <c r="V45" s="6">
         <f t="shared" si="20"/>
-        <v>6.6219523330979078</v>
+        <v>11.863508186081059</v>
       </c>
       <c r="W45" s="6">
         <f t="shared" si="13"/>
@@ -29669,7 +29719,7 @@
       </c>
       <c r="AF45" s="6">
         <f t="shared" si="14"/>
-        <v>-0.83199632346520946</v>
+        <v>-2.6925234951037833</v>
       </c>
       <c r="AG45" s="6">
         <f t="shared" si="15"/>
@@ -29728,12 +29778,12 @@
         <f t="shared" si="18"/>
         <v>1.215415807482078</v>
       </c>
-      <c r="O46">
-        <v>45</v>
+      <c r="O46" s="7">
+        <v>43.253700000000002</v>
       </c>
       <c r="P46" s="8">
         <f t="shared" si="4"/>
-        <v>97.826086956521735</v>
+        <v>105.47084742539032</v>
       </c>
       <c r="S46" s="6">
         <f t="shared" si="5"/>
@@ -29749,7 +29799,7 @@
       </c>
       <c r="V46" s="6">
         <f t="shared" si="20"/>
-        <v>6.2323517188459032</v>
+        <v>13.756682492830615</v>
       </c>
       <c r="W46" s="6">
         <f t="shared" si="13"/>
@@ -29781,7 +29831,7 @@
       </c>
       <c r="AF46" s="6">
         <f t="shared" si="14"/>
-        <v>-1.221596937717214</v>
+        <v>-0.79934918835422764</v>
       </c>
       <c r="AG46" s="6">
         <f t="shared" si="15"/>
@@ -29840,12 +29890,12 @@
         <f t="shared" si="18"/>
         <v>1.1991346126808242</v>
       </c>
-      <c r="O47">
-        <v>44</v>
+      <c r="O47" s="7">
+        <v>41.238300000000002</v>
       </c>
       <c r="P47" s="8">
         <f t="shared" si="4"/>
-        <v>95.652173913043484</v>
+        <v>100.5564482895677</v>
       </c>
       <c r="S47" s="6">
         <f t="shared" si="5"/>
@@ -29861,7 +29911,7 @@
       </c>
       <c r="V47" s="6">
         <f t="shared" si="20"/>
-        <v>2.374640802845736</v>
+        <v>7.3747228953297315</v>
       </c>
       <c r="W47" s="6">
         <f t="shared" si="13"/>
@@ -29893,7 +29943,7 @@
       </c>
       <c r="AF47" s="6">
         <f t="shared" si="14"/>
-        <v>-5.0793078537173812</v>
+        <v>-7.1813087858551112</v>
       </c>
       <c r="AG47" s="6">
         <f t="shared" si="15"/>
@@ -29952,12 +30002,12 @@
         <f t="shared" si="18"/>
         <v>1.2044073487206195</v>
       </c>
-      <c r="O48">
-        <v>41</v>
+      <c r="O48" s="7">
+        <v>41.049399999999999</v>
       </c>
       <c r="P48" s="8">
         <f t="shared" si="4"/>
-        <v>89.130434782608688</v>
+        <v>100.09583005162142</v>
       </c>
       <c r="S48" s="6">
         <f t="shared" si="5"/>
@@ -29973,7 +30023,7 @@
       </c>
       <c r="V48" s="6">
         <f t="shared" si="20"/>
-        <v>-4.4905958367661531</v>
+        <v>7.1121213056537975</v>
       </c>
       <c r="W48" s="6">
         <f t="shared" si="13"/>
@@ -30005,7 +30055,7 @@
       </c>
       <c r="AF48" s="6">
         <f t="shared" si="14"/>
-        <v>-11.944544493329271</v>
+        <v>-7.4439103755310452</v>
       </c>
       <c r="AG48" s="6">
         <f t="shared" si="15"/>
@@ -30065,12 +30115,12 @@
         <f t="shared" si="18"/>
         <v>1.2063192562945073</v>
       </c>
-      <c r="O49">
-        <v>44</v>
+      <c r="O49" s="7">
+        <v>42.1706</v>
       </c>
       <c r="P49" s="8">
         <f t="shared" si="4"/>
-        <v>95.652173913043484</v>
+        <v>102.82979071009338</v>
       </c>
       <c r="S49" s="6">
         <f t="shared" si="5"/>
@@ -30086,7 +30136,7 @@
       </c>
       <c r="V49" s="6">
         <f t="shared" si="20"/>
-        <v>2.4875498431630731</v>
+        <v>9.7232178953327075</v>
       </c>
       <c r="W49" s="6">
         <f t="shared" si="13"/>
@@ -30118,7 +30168,7 @@
       </c>
       <c r="AF49" s="6">
         <f t="shared" si="14"/>
-        <v>-4.9663988134000441</v>
+        <v>-4.8328137858521352</v>
       </c>
       <c r="AG49" s="6">
         <f t="shared" si="15"/>
@@ -30178,12 +30228,12 @@
         <f t="shared" si="18"/>
         <v>1.2032870725653171</v>
       </c>
-      <c r="O50">
-        <v>47</v>
+      <c r="O50" s="7">
+        <v>44.827599999999997</v>
       </c>
       <c r="P50" s="8">
         <f t="shared" si="4"/>
-        <v>102.17391304347827</v>
+        <v>109.30868249528774</v>
       </c>
       <c r="S50" s="6">
         <f t="shared" si="5"/>
@@ -30199,7 +30249,7 @@
       </c>
       <c r="V50" s="6">
         <f t="shared" si="20"/>
-        <v>8.58944409280587</v>
+        <v>15.339387903186315</v>
       </c>
       <c r="W50" s="6">
         <f t="shared" si="13"/>
@@ -30231,7 +30281,7 @@
       </c>
       <c r="AF50" s="6">
         <f t="shared" si="14"/>
-        <v>1.1354954362427527</v>
+        <v>0.7833562220014727</v>
       </c>
       <c r="AG50" s="6">
         <f t="shared" si="15"/>
@@ -30291,12 +30341,12 @@
         <f t="shared" si="18"/>
         <v>1.2046712258601477</v>
       </c>
-      <c r="O51">
-        <v>44</v>
+      <c r="O51" s="7">
+        <v>42.857799999999997</v>
       </c>
       <c r="P51" s="8">
         <f t="shared" si="4"/>
-        <v>95.652173913043484</v>
+        <v>104.50547548043043</v>
       </c>
       <c r="S51" s="6">
         <f t="shared" si="5"/>
@@ -30312,7 +30362,7 @@
       </c>
       <c r="V51" s="6">
         <f t="shared" si="20"/>
-        <v>1.8663844340888309</v>
+        <v>10.718488789774259</v>
       </c>
       <c r="W51" s="6">
         <f t="shared" si="13"/>
@@ -30344,7 +30394,7 @@
       </c>
       <c r="AF51" s="6">
         <f t="shared" si="14"/>
-        <v>-5.5875642224742865</v>
+        <v>-3.8375428914105836</v>
       </c>
       <c r="AG51" s="6">
         <f t="shared" si="15"/>
@@ -30403,12 +30453,12 @@
         <f t="shared" si="18"/>
         <v>1.2391174705337893</v>
       </c>
-      <c r="O52">
-        <v>46</v>
+      <c r="O52" s="6">
+        <v>43.907600000000002</v>
       </c>
       <c r="P52" s="8">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>107.06533268633824</v>
       </c>
       <c r="S52" s="6">
         <f t="shared" si="5"/>
@@ -30424,7 +30474,7 @@
       </c>
       <c r="V52" s="6">
         <f t="shared" si="20"/>
-        <v>8.9105203733935774</v>
+        <v>15.737425172968031</v>
       </c>
       <c r="W52" s="6">
         <f t="shared" si="13"/>
@@ -30456,7 +30506,7 @@
       </c>
       <c r="AF52" s="6">
         <f t="shared" si="14"/>
-        <v>1.4565717168304602</v>
+        <v>1.1813934917831883</v>
       </c>
       <c r="AG52" s="6">
         <f t="shared" si="15"/>
@@ -30515,12 +30565,12 @@
         <f t="shared" si="18"/>
         <v>1.2544351355700856</v>
       </c>
-      <c r="O53">
-        <v>46</v>
+      <c r="O53" s="6">
+        <v>42.662300000000002</v>
       </c>
       <c r="P53" s="8">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>104.02876364602866</v>
       </c>
       <c r="S53" s="6">
         <f t="shared" si="5"/>
@@ -30536,7 +30586,7 @@
       </c>
       <c r="V53" s="6">
         <f t="shared" si="20"/>
-        <v>9.9188050915014045</v>
+        <v>13.868529934839632</v>
       </c>
       <c r="W53" s="6">
         <f t="shared" si="13"/>
@@ -30568,7 +30618,7 @@
       </c>
       <c r="AF53" s="6">
         <f t="shared" si="14"/>
-        <v>2.4648564349382873</v>
+        <v>-0.68750174634521066</v>
       </c>
       <c r="AG53" s="6">
         <f t="shared" si="15"/>
@@ -30627,12 +30677,12 @@
         <f t="shared" si="18"/>
         <v>1.2525484940450491</v>
       </c>
-      <c r="O54">
-        <v>41</v>
+      <c r="O54" s="6">
+        <v>42.877200000000002</v>
       </c>
       <c r="P54" s="8">
         <f t="shared" si="4"/>
-        <v>89.130434782608688</v>
+        <v>104.55278090031481</v>
       </c>
       <c r="S54" s="6">
         <f t="shared" si="5"/>
@@ -30648,7 +30698,7 @@
       </c>
       <c r="V54" s="6">
         <f t="shared" si="20"/>
-        <v>-1.9589511912592283</v>
+        <v>14.000165616459245</v>
       </c>
       <c r="W54" s="6">
         <f t="shared" si="13"/>
@@ -30680,7 +30730,7 @@
       </c>
       <c r="AF54" s="6">
         <f t="shared" si="14"/>
-        <v>-9.4128998478223451</v>
+        <v>-0.5558660647255973</v>
       </c>
       <c r="AG54" s="6">
         <f t="shared" si="15"/>
@@ -30739,12 +30789,12 @@
         <f t="shared" si="18"/>
         <v>1.2378670850815154</v>
       </c>
-      <c r="O55">
-        <v>50</v>
+      <c r="O55" s="6">
+        <v>44.316499999999998</v>
       </c>
       <c r="P55" s="8">
         <f t="shared" si="4"/>
-        <v>108.69565217391303</v>
+        <v>108.06240413946809</v>
       </c>
       <c r="S55" s="6">
         <f t="shared" si="5"/>
@@ -30760,7 +30810,7 @@
       </c>
       <c r="V55" s="6">
         <f t="shared" si="20"/>
-        <v>16.486783767863354</v>
+        <v>15.90249191104482</v>
       </c>
       <c r="W55" s="6">
         <f t="shared" si="13"/>
@@ -30792,7 +30842,7 @@
       </c>
       <c r="AF55" s="6">
         <f t="shared" si="14"/>
-        <v>9.032835111300237</v>
+        <v>1.3464602298599768</v>
       </c>
       <c r="AG55" s="6">
         <f t="shared" si="15"/>
@@ -30851,12 +30901,12 @@
         <f t="shared" si="18"/>
         <v>1.2432919204545183</v>
       </c>
-      <c r="O56">
-        <v>43</v>
+      <c r="O56" s="6">
+        <v>42.018999999999998</v>
       </c>
       <c r="P56" s="8">
         <f t="shared" si="4"/>
-        <v>93.478260869565219</v>
+        <v>102.46012567635776</v>
       </c>
       <c r="S56" s="6">
         <f t="shared" si="5"/>
@@ -30872,7 +30922,7 @@
       </c>
       <c r="V56" s="6">
         <f t="shared" si="20"/>
-        <v>1.6360354847606309</v>
+        <v>10.810515475482775</v>
       </c>
       <c r="W56" s="6">
         <f t="shared" si="13"/>
@@ -30904,7 +30954,7 @@
       </c>
       <c r="AF56" s="6">
         <f t="shared" si="14"/>
-        <v>-5.8179131718024859</v>
+        <v>-3.7455162057020672</v>
       </c>
       <c r="AG56" s="6">
         <f t="shared" si="15"/>
@@ -30963,12 +31013,12 @@
         <f t="shared" si="18"/>
         <v>1.2756678309090421</v>
       </c>
-      <c r="O57">
-        <v>41</v>
+      <c r="O57" s="6">
+        <v>41.991199999999999</v>
       </c>
       <c r="P57" s="8">
         <f t="shared" si="4"/>
-        <v>89.130434782608688</v>
+        <v>102.39233749734822</v>
       </c>
       <c r="S57" s="6">
         <f t="shared" si="5"/>
@@ -30984,7 +31034,7 @@
       </c>
       <c r="V57" s="6">
         <f t="shared" si="20"/>
-        <v>-0.76179239011867761</v>
+        <v>13.109310057361901</v>
       </c>
       <c r="W57" s="6">
         <f t="shared" si="13"/>
@@ -31016,7 +31066,7 @@
       </c>
       <c r="AF57" s="6">
         <f t="shared" si="14"/>
-        <v>-8.2157410466817957</v>
+        <v>-1.4467216238229419</v>
       </c>
       <c r="AG57" s="6">
         <f t="shared" si="15"/>
@@ -31075,12 +31125,12 @@
         <f t="shared" si="18"/>
         <v>1.2973264363128827</v>
       </c>
-      <c r="O58">
-        <v>50</v>
+      <c r="O58" s="6">
+        <v>42.094900000000003</v>
       </c>
       <c r="P58" s="8">
         <f t="shared" si="4"/>
-        <v>108.69565217391303</v>
+        <v>102.6452020355961</v>
       </c>
       <c r="S58" s="6">
         <f t="shared" si="5"/>
@@ -31096,7 +31146,7 @@
       </c>
       <c r="V58" s="6">
         <f t="shared" si="20"/>
-        <v>20.561132002828796</v>
+        <v>14.833792646634885</v>
       </c>
       <c r="W58" s="6">
         <f t="shared" si="13"/>
@@ -31128,7 +31178,7 @@
       </c>
       <c r="AF58" s="6">
         <f t="shared" si="14"/>
-        <v>13.107183346265678</v>
+        <v>0.27776096545004236</v>
       </c>
       <c r="AG58" s="6">
         <f t="shared" si="15"/>
@@ -31187,12 +31237,12 @@
         <f t="shared" si="18"/>
         <v>1.2816710133889981</v>
       </c>
-      <c r="O59">
-        <v>44</v>
+      <c r="O59" s="6">
+        <v>44.2836</v>
       </c>
       <c r="P59" s="8">
         <f t="shared" si="4"/>
-        <v>95.652173913043484</v>
+        <v>107.98217999956108</v>
       </c>
       <c r="S59" s="6">
         <f t="shared" si="5"/>
@@ -31208,7 +31258,7 @@
       </c>
       <c r="V59" s="6">
         <f t="shared" si="20"/>
-        <v>6.3579671225895478</v>
+        <v>18.482746131479537</v>
       </c>
       <c r="W59" s="6">
         <f t="shared" si="13"/>
@@ -31240,7 +31290,7 @@
       </c>
       <c r="AF59" s="6">
         <f t="shared" si="14"/>
-        <v>-1.0959815339735695</v>
+        <v>3.9267144502946945</v>
       </c>
       <c r="AG59" s="6">
         <f t="shared" si="15"/>
@@ -31299,12 +31349,12 @@
         <f t="shared" si="18"/>
         <v>1.2699215419664871</v>
       </c>
-      <c r="O60">
-        <v>46</v>
+      <c r="O60" s="6">
+        <v>42.1706</v>
       </c>
       <c r="P60" s="8">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>102.82979071009338</v>
       </c>
       <c r="S60" s="6">
         <f t="shared" si="5"/>
@@ -31320,7 +31370,7 @@
       </c>
       <c r="V60" s="6">
         <f t="shared" si="20"/>
-        <v>9.7044596502449529</v>
+        <v>12.494951445331189</v>
       </c>
       <c r="W60" s="6">
         <f t="shared" si="13"/>
@@ -31352,7 +31402,7 @@
       </c>
       <c r="AF60" s="6">
         <f t="shared" si="14"/>
-        <v>2.2505109936818357</v>
+        <v>-2.0610802358536535</v>
       </c>
       <c r="AG60" s="6">
         <f t="shared" si="15"/>
@@ -31411,12 +31461,12 @@
         <f t="shared" si="18"/>
         <v>1.28939340030975</v>
       </c>
-      <c r="O61">
-        <v>49</v>
+      <c r="O61" s="6">
+        <v>42.688800000000001</v>
       </c>
       <c r="P61" s="8">
         <f t="shared" si="4"/>
-        <v>106.5217391304348</v>
+        <v>104.09338187422124</v>
       </c>
       <c r="S61" s="6">
         <f t="shared" si="5"/>
@@ -31432,7 +31482,7 @@
       </c>
       <c r="V61" s="6">
         <f t="shared" si="20"/>
-        <v>17.366300086993867</v>
+        <v>15.060231216500139</v>
       </c>
       <c r="W61" s="6">
         <f t="shared" si="13"/>
@@ -31464,7 +31514,7 @@
       </c>
       <c r="AF61" s="6">
         <f t="shared" si="14"/>
-        <v>9.9123514304307498</v>
+        <v>0.50419953531529593</v>
       </c>
       <c r="AG61" s="6">
         <f t="shared" si="15"/>
@@ -31523,12 +31573,12 @@
         <f t="shared" si="18"/>
         <v>1.2862711375846305</v>
       </c>
-      <c r="O62">
-        <v>41</v>
+      <c r="O62" s="6">
+        <v>42.219200000000001</v>
       </c>
       <c r="P62" s="8">
         <f t="shared" si="4"/>
-        <v>89.130434782608688</v>
+        <v>102.94829810217483</v>
       </c>
       <c r="S62" s="6">
         <f t="shared" si="5"/>
@@ -31544,7 +31594,7 @@
       </c>
       <c r="V62" s="6">
         <f t="shared" si="20"/>
-        <v>-0.87869166033394253</v>
+        <v>13.533912922575023</v>
       </c>
       <c r="W62" s="6">
         <f t="shared" si="13"/>
@@ -31576,7 +31626,7 @@
       </c>
       <c r="AF62" s="6">
         <f t="shared" si="14"/>
-        <v>-8.3326403168970593</v>
+        <v>-1.0221187586098193</v>
       </c>
       <c r="AG62" s="6">
         <f t="shared" si="15"/>
@@ -31635,12 +31685,12 @@
         <f t="shared" si="18"/>
         <v>1.2904126950403665</v>
       </c>
-      <c r="O63">
-        <v>43</v>
+      <c r="O63" s="6">
+        <v>43.141100000000002</v>
       </c>
       <c r="P63" s="8">
         <f t="shared" si="4"/>
-        <v>93.478260869565219</v>
+        <v>105.19628091616455</v>
       </c>
       <c r="S63" s="6">
         <f t="shared" si="5"/>
@@ -31656,7 +31706,7 @@
       </c>
       <c r="V63" s="6">
         <f t="shared" si="20"/>
-        <v>4.0278524572284642</v>
+        <v>15.837756655047899</v>
       </c>
       <c r="W63" s="6">
         <f t="shared" si="13"/>
@@ -31688,7 +31738,7 @@
       </c>
       <c r="AF63" s="6">
         <f t="shared" si="14"/>
-        <v>-3.426096199334653</v>
+        <v>1.2817249738630565</v>
       </c>
       <c r="AG63" s="6">
         <f t="shared" si="15"/>
@@ -31747,12 +31797,12 @@
         <f t="shared" si="18"/>
         <v>1.3040299842560046</v>
       </c>
-      <c r="O64">
-        <v>45</v>
+      <c r="O64" s="6">
+        <v>41.010100000000001</v>
       </c>
       <c r="P64" s="8">
         <f t="shared" si="4"/>
-        <v>97.826086956521735</v>
+        <v>100</v>
       </c>
       <c r="S64" s="6">
         <f t="shared" si="5"/>
@@ -31768,7 +31818,7 @@
       </c>
       <c r="V64" s="6">
         <f t="shared" si="20"/>
-        <v>9.5026606012175172</v>
+        <v>11.700551273095034</v>
       </c>
       <c r="W64" s="6">
         <f t="shared" si="13"/>
@@ -31800,7 +31850,7 @@
       </c>
       <c r="AF64" s="6">
         <f t="shared" si="14"/>
-        <v>2.0487119446544</v>
+        <v>-2.8554804080898091</v>
       </c>
       <c r="AG64" s="6">
         <f t="shared" si="15"/>
@@ -31859,12 +31909,12 @@
         <f t="shared" si="18"/>
         <v>1.3078793350623128</v>
       </c>
-      <c r="O65">
-        <v>50</v>
+      <c r="O65" s="6">
+        <v>41.049399999999999</v>
       </c>
       <c r="P65" s="8">
         <f t="shared" si="4"/>
-        <v>108.69565217391303</v>
+        <v>100.09583005162142</v>
       </c>
       <c r="S65" s="6">
         <f t="shared" si="5"/>
@@ -31880,7 +31930,7 @@
       </c>
       <c r="V65" s="6">
         <f t="shared" si="20"/>
-        <v>20.212299757485827</v>
+        <v>11.969923027521993</v>
       </c>
       <c r="W65" s="6">
         <f t="shared" si="13"/>
@@ -31912,7 +31962,7 @@
       </c>
       <c r="AF65" s="6">
         <f t="shared" si="14"/>
-        <v>12.75835110092271</v>
+        <v>-2.5861086536628495</v>
       </c>
       <c r="AG65" s="6">
         <f t="shared" si="15"/>
@@ -31971,12 +32021,12 @@
         <f t="shared" si="18"/>
         <v>1.3220378220821292</v>
       </c>
-      <c r="O66">
-        <v>49</v>
+      <c r="O66" s="6">
+        <v>41.238300000000002</v>
       </c>
       <c r="P66" s="8">
         <f t="shared" si="4"/>
-        <v>106.5217391304348</v>
+        <v>100.5564482895677</v>
       </c>
       <c r="S66" s="6">
         <f t="shared" si="5"/>
@@ -31992,7 +32042,7 @@
       </c>
       <c r="V66" s="6">
         <f t="shared" si="20"/>
-        <v>19.147597963198894</v>
+        <v>13.384613636446357</v>
       </c>
       <c r="W66" s="6">
         <f t="shared" si="13"/>
@@ -32024,7 +32074,7 @@
       </c>
       <c r="AF66" s="6">
         <f t="shared" si="14"/>
-        <v>11.693649306635777</v>
+        <v>-1.1714180447384859</v>
       </c>
       <c r="AG66" s="6">
         <f t="shared" si="15"/>
@@ -32083,12 +32133,12 @@
         <f t="shared" si="18"/>
         <v>1.300984898475551</v>
       </c>
-      <c r="O67">
-        <v>47</v>
+      <c r="O67" s="6">
+        <v>40.774900000000002</v>
       </c>
       <c r="P67" s="8">
         <f t="shared" si="4"/>
-        <v>102.17391304347827</v>
+        <v>99.426482744494649</v>
       </c>
       <c r="S67" s="6">
         <f t="shared" si="5"/>
@@ -32104,7 +32154,7 @@
       </c>
       <c r="V67" s="6">
         <f t="shared" ref="V67:V89" si="24">LN((P67*N67/100)/I67)*100</f>
-        <v>13.253886020957506</v>
+        <v>10.528097317889626</v>
       </c>
       <c r="W67" s="6">
         <f t="shared" si="13"/>
@@ -32136,7 +32186,7 @@
       </c>
       <c r="AF67" s="6">
         <f t="shared" si="14"/>
-        <v>5.7999373643943883</v>
+        <v>-4.0279343632952163</v>
       </c>
       <c r="AG67" s="6">
         <f t="shared" si="15"/>
@@ -32195,12 +32245,12 @@
         <f t="shared" si="18"/>
         <v>1.0310585062630331</v>
       </c>
-      <c r="O68">
-        <v>43</v>
+      <c r="O68" s="6">
+        <v>36.078899999999997</v>
       </c>
       <c r="P68" s="8">
         <f t="shared" ref="P68:P89" si="28">O68/$O$3*100</f>
-        <v>93.478260869565219</v>
+        <v>87.975645024030655</v>
       </c>
       <c r="S68" s="6">
         <f t="shared" ref="S68:S89" si="29">LN(D68/I68)*100</f>
@@ -32216,7 +32266,7 @@
       </c>
       <c r="V68" s="6">
         <f t="shared" si="24"/>
-        <v>-18.960896560160045</v>
+        <v>-25.027785571193199</v>
       </c>
       <c r="W68" s="6">
         <f t="shared" si="13"/>
@@ -32248,7 +32298,7 @@
       </c>
       <c r="AF68" s="6">
         <f t="shared" si="14"/>
-        <v>-26.414845216723162</v>
+        <v>-39.58381725237804</v>
       </c>
       <c r="AG68" s="6">
         <f t="shared" si="15"/>
@@ -32307,12 +32357,12 @@
         <f t="shared" si="18"/>
         <v>1.1511390926869418</v>
       </c>
-      <c r="O69">
-        <v>50</v>
+      <c r="O69" s="6">
+        <v>36.847999999999999</v>
       </c>
       <c r="P69" s="8">
         <f t="shared" si="28"/>
-        <v>108.69565217391303</v>
+        <v>89.851036695838332</v>
       </c>
       <c r="S69" s="6">
         <f t="shared" si="29"/>
@@ -32328,7 +32378,7 @@
       </c>
       <c r="V69" s="6">
         <f t="shared" si="24"/>
-        <v>7.0715242636202449</v>
+        <v>-11.968340105516555</v>
       </c>
       <c r="W69" s="6">
         <f t="shared" ref="W69:W89" si="37">(LN(G69)-LN(G68))*100</f>
@@ -32360,7 +32410,7 @@
       </c>
       <c r="AF69" s="6">
         <f t="shared" ref="AF69:AF89" si="38">V69-$V$91</f>
-        <v>-0.38242439294287234</v>
+        <v>-26.524371786701398</v>
       </c>
       <c r="AG69" s="6">
         <f t="shared" ref="AG69:AG89" si="39">W69</f>
@@ -32419,12 +32469,12 @@
         <f t="shared" ref="N70:N89" si="42">M70/$M$3</f>
         <v>1.244652917704387</v>
       </c>
-      <c r="O70">
-        <v>49</v>
+      <c r="O70" s="6">
+        <v>39.173900000000003</v>
       </c>
       <c r="P70" s="8">
         <f t="shared" si="28"/>
-        <v>106.5217391304348</v>
+        <v>95.522566392181446</v>
       </c>
       <c r="S70" s="6">
         <f t="shared" si="29"/>
@@ -32440,7 +32490,7 @@
       </c>
       <c r="V70" s="6">
         <f t="shared" si="24"/>
-        <v>12.795257940232405</v>
+        <v>1.8966008665904823</v>
       </c>
       <c r="W70" s="6">
         <f t="shared" si="37"/>
@@ -32472,7 +32522,7 @@
       </c>
       <c r="AF70" s="6">
         <f t="shared" si="38"/>
-        <v>5.3413092836692879</v>
+        <v>-12.65943081459436</v>
       </c>
       <c r="AG70" s="6">
         <f t="shared" si="39"/>
@@ -32531,12 +32581,12 @@
         <f t="shared" si="42"/>
         <v>1.2941573523669485</v>
       </c>
-      <c r="O71">
-        <v>46</v>
+      <c r="O71" s="6">
+        <v>42.857799999999997</v>
       </c>
       <c r="P71" s="8">
         <f t="shared" si="28"/>
-        <v>100</v>
+        <v>104.50547548043043</v>
       </c>
       <c r="S71" s="6">
         <f t="shared" si="29"/>
@@ -32552,7 +32602,7 @@
       </c>
       <c r="V71" s="6">
         <f t="shared" si="24"/>
-        <v>10.311205940936921</v>
+        <v>14.718134039538979</v>
       </c>
       <c r="W71" s="6">
         <f t="shared" si="37"/>
@@ -32584,7 +32634,7 @@
       </c>
       <c r="AF71" s="6">
         <f t="shared" si="38"/>
-        <v>2.8572572843738033</v>
+        <v>0.16210235835413656</v>
       </c>
       <c r="AG71" s="6">
         <f t="shared" si="39"/>
@@ -32643,12 +32693,12 @@
         <f t="shared" si="42"/>
         <v>1.2941025920189655</v>
       </c>
-      <c r="O72">
-        <v>46</v>
+      <c r="O72" s="6">
+        <v>41.892200000000003</v>
       </c>
       <c r="P72" s="8">
         <f t="shared" si="28"/>
-        <v>100</v>
+        <v>102.15093355051562</v>
       </c>
       <c r="S72" s="6">
         <f t="shared" si="29"/>
@@ -32664,7 +32714,7 @@
       </c>
       <c r="V72" s="6">
         <f t="shared" si="24"/>
-        <v>9.8568162103854267</v>
+        <v>11.984943635393918</v>
       </c>
       <c r="W72" s="6">
         <f t="shared" si="37"/>
@@ -32696,7 +32746,7 @@
       </c>
       <c r="AF72" s="6">
         <f t="shared" si="38"/>
-        <v>2.4028675538223094</v>
+        <v>-2.5710880457909244</v>
       </c>
       <c r="AG72" s="6">
         <f t="shared" si="39"/>
@@ -32755,12 +32805,12 @@
         <f t="shared" si="42"/>
         <v>1.3396884755477401</v>
       </c>
-      <c r="O73">
-        <v>40</v>
+      <c r="O73" s="6">
+        <v>44.798699999999997</v>
       </c>
       <c r="P73" s="8">
         <f t="shared" si="28"/>
-        <v>86.956521739130437</v>
+        <v>109.23821205020225</v>
       </c>
       <c r="S73" s="6">
         <f t="shared" si="29"/>
@@ -32776,7 +32826,7 @@
       </c>
       <c r="V73" s="6">
         <f t="shared" si="24"/>
-        <v>-1.1075732959587312</v>
+        <v>21.704695272769552</v>
       </c>
       <c r="W73" s="6">
         <f t="shared" si="37"/>
@@ -32808,7 +32858,7 @@
       </c>
       <c r="AF73" s="6">
         <f t="shared" si="38"/>
-        <v>-8.5615219525218489</v>
+        <v>7.1486635915847092</v>
       </c>
       <c r="AG73" s="6">
         <f t="shared" si="39"/>
@@ -32867,12 +32917,12 @@
         <f t="shared" si="42"/>
         <v>1.3656152861419737</v>
       </c>
-      <c r="O74">
-        <v>41</v>
+      <c r="O74" s="6">
+        <v>43.021500000000003</v>
       </c>
       <c r="P74" s="8">
         <f t="shared" si="28"/>
-        <v>89.130434782608688</v>
+        <v>104.90464544100114</v>
       </c>
       <c r="S74" s="6">
         <f t="shared" si="29"/>
@@ -32888,7 +32938,7 @@
       </c>
       <c r="V74" s="6">
         <f t="shared" si="24"/>
-        <v>2.8283276890146363</v>
+        <v>19.123421957950097</v>
       </c>
       <c r="W74" s="6">
         <f t="shared" si="37"/>
@@ -32920,7 +32970,7 @@
       </c>
       <c r="AF74" s="6">
         <f t="shared" si="38"/>
-        <v>-4.625620967548481</v>
+        <v>4.5673902767652539</v>
       </c>
       <c r="AG74" s="6">
         <f t="shared" si="39"/>
@@ -32979,12 +33029,12 @@
         <f t="shared" si="42"/>
         <v>1.3591774349752324</v>
       </c>
-      <c r="O75">
-        <v>48</v>
+      <c r="O75" s="6">
+        <v>43.613900000000001</v>
       </c>
       <c r="P75" s="8">
         <f t="shared" si="28"/>
-        <v>104.34782608695652</v>
+        <v>106.34916764406816</v>
       </c>
       <c r="S75" s="6">
         <f t="shared" si="29"/>
@@ -33000,7 +33050,7 @@
       </c>
       <c r="V75" s="6">
         <f t="shared" si="24"/>
-        <v>17.668524158772936</v>
+        <v>19.568315622446377</v>
       </c>
       <c r="W75" s="6">
         <f t="shared" si="37"/>
@@ -33032,7 +33082,7 @@
       </c>
       <c r="AF75" s="6">
         <f t="shared" si="38"/>
-        <v>10.214575502209819</v>
+        <v>5.0122839412615345</v>
       </c>
       <c r="AG75" s="6">
         <f t="shared" si="39"/>
@@ -33091,12 +33141,12 @@
         <f t="shared" si="42"/>
         <v>1.403384048989716</v>
       </c>
-      <c r="O76">
-        <v>47</v>
+      <c r="O76" s="6">
+        <v>41.996600000000001</v>
       </c>
       <c r="P76" s="8">
         <f t="shared" si="28"/>
-        <v>102.17391304347827</v>
+        <v>102.40550498535725</v>
       </c>
       <c r="S76" s="6">
         <f t="shared" si="29"/>
@@ -33112,7 +33162,7 @@
       </c>
       <c r="V76" s="6">
         <f t="shared" si="24"/>
-        <v>18.721155356092897</v>
+        <v>18.947563313491404</v>
       </c>
       <c r="W76" s="6">
         <f t="shared" si="37"/>
@@ -33144,7 +33194,7 @@
       </c>
       <c r="AF76" s="6">
         <f t="shared" si="38"/>
-        <v>11.26720669952978</v>
+        <v>4.3915316323065614</v>
       </c>
       <c r="AG76" s="6">
         <f t="shared" si="39"/>
@@ -33203,12 +33253,12 @@
         <f t="shared" si="42"/>
         <v>1.3956977266941035</v>
       </c>
-      <c r="O77">
-        <v>44</v>
+      <c r="O77" s="6">
+        <v>43.147300000000001</v>
       </c>
       <c r="P77" s="8">
         <f t="shared" si="28"/>
-        <v>95.652173913043484</v>
+        <v>105.21139914313791</v>
       </c>
       <c r="S77" s="6">
         <f t="shared" si="29"/>
@@ -33224,7 +33274,7 @@
       </c>
       <c r="V77" s="6">
         <f t="shared" si="24"/>
-        <v>11.533445362921322</v>
+        <v>21.058768151931748</v>
       </c>
       <c r="W77" s="6">
         <f t="shared" si="37"/>
@@ -33256,7 +33306,7 @@
       </c>
       <c r="AF77" s="6">
         <f t="shared" si="38"/>
-        <v>4.0794967063582046</v>
+        <v>6.5027364707469051</v>
       </c>
       <c r="AG77" s="6">
         <f t="shared" si="39"/>
@@ -33315,12 +33365,12 @@
         <f t="shared" si="42"/>
         <v>1.4107000098785549</v>
       </c>
-      <c r="O78">
-        <v>49</v>
+      <c r="O78" s="6">
+        <v>43.491399999999999</v>
       </c>
       <c r="P78" s="8">
         <f t="shared" si="28"/>
-        <v>106.5217391304348</v>
+        <v>106.05046074015914</v>
       </c>
       <c r="S78" s="6">
         <f t="shared" si="29"/>
@@ -33336,7 +33386,7 @@
       </c>
       <c r="V78" s="6">
         <f t="shared" si="24"/>
-        <v>23.322962010136035</v>
+        <v>22.879555804894721</v>
       </c>
       <c r="W78" s="6">
         <f t="shared" si="37"/>
@@ -33368,7 +33418,7 @@
       </c>
       <c r="AF78" s="6">
         <f t="shared" si="38"/>
-        <v>15.869013353572917</v>
+        <v>8.3235241237098787</v>
       </c>
       <c r="AG78" s="6">
         <f t="shared" si="39"/>
@@ -33427,12 +33477,12 @@
         <f t="shared" si="42"/>
         <v>1.4247411247460391</v>
       </c>
-      <c r="O79">
-        <v>45</v>
+      <c r="O79" s="6">
+        <v>44.2149</v>
       </c>
       <c r="P79" s="8">
         <f t="shared" si="28"/>
-        <v>97.826086956521735</v>
+        <v>107.81466029100149</v>
       </c>
       <c r="S79" s="6">
         <f t="shared" si="29"/>
@@ -33448,7 +33498,7 @@
       </c>
       <c r="V79" s="6">
         <f t="shared" si="24"/>
-        <v>15.754881294981216</v>
+        <v>25.477117818718035</v>
       </c>
       <c r="W79" s="6">
         <f t="shared" si="37"/>
@@ -33480,7 +33530,7 @@
       </c>
       <c r="AF79" s="6">
         <f t="shared" si="38"/>
-        <v>8.3009326384180984</v>
+        <v>10.921086137533193</v>
       </c>
       <c r="AG79" s="6">
         <f t="shared" si="39"/>
@@ -33539,12 +33589,12 @@
         <f t="shared" si="42"/>
         <v>1.41577641294603</v>
       </c>
-      <c r="O80">
-        <v>48</v>
+      <c r="O80" s="6">
+        <v>44.827599999999997</v>
       </c>
       <c r="P80" s="8">
         <f t="shared" si="28"/>
-        <v>104.34782608695652</v>
+        <v>109.30868249528774</v>
       </c>
       <c r="S80" s="6">
         <f t="shared" si="29"/>
@@ -33560,7 +33610,7 @@
       </c>
       <c r="V80" s="6">
         <f t="shared" si="24"/>
-        <v>21.530357936592388</v>
+        <v>26.174960827189604</v>
       </c>
       <c r="W80" s="6">
         <f t="shared" si="37"/>
@@ -33592,7 +33642,7 @@
       </c>
       <c r="AF80" s="6">
         <f t="shared" si="38"/>
-        <v>14.076409280029271</v>
+        <v>11.618929146004762</v>
       </c>
       <c r="AG80" s="6">
         <f t="shared" si="39"/>
@@ -33651,12 +33701,12 @@
         <f t="shared" si="42"/>
         <v>1.446882882806303</v>
       </c>
-      <c r="O81">
-        <v>47</v>
+      <c r="O81" s="6">
+        <v>45.073900000000002</v>
       </c>
       <c r="P81" s="8">
         <f t="shared" si="28"/>
-        <v>102.17391304347827</v>
+        <v>109.90926625392281</v>
       </c>
       <c r="S81" s="6">
         <f t="shared" si="29"/>
@@ -33672,7 +33722,7 @@
       </c>
       <c r="V81" s="6">
         <f t="shared" si="24"/>
-        <v>21.551188757223656</v>
+        <v>28.849066954073869</v>
       </c>
       <c r="W81" s="6">
         <f t="shared" si="37"/>
@@ -33704,7 +33754,7 @@
       </c>
       <c r="AF81" s="6">
         <f t="shared" si="38"/>
-        <v>14.097240100660539</v>
+        <v>14.293035272889027</v>
       </c>
       <c r="AG81" s="6">
         <f t="shared" si="39"/>
@@ -33763,12 +33813,12 @@
         <f t="shared" si="42"/>
         <v>1.4600599290665572</v>
       </c>
-      <c r="O82">
-        <v>44</v>
+      <c r="O82" s="6">
+        <v>44.579900000000002</v>
       </c>
       <c r="P82" s="8">
         <f t="shared" si="28"/>
-        <v>95.652173913043484</v>
+        <v>108.70468494346514</v>
       </c>
       <c r="S82" s="6">
         <f t="shared" si="29"/>
@@ -33784,7 +33834,7 @@
       </c>
       <c r="V82" s="6">
         <f t="shared" si="24"/>
-        <v>15.814818883539806</v>
+        <v>28.606465837242546</v>
       </c>
       <c r="W82" s="6">
         <f t="shared" si="37"/>
@@ -33816,7 +33866,7 @@
       </c>
       <c r="AF82" s="6">
         <f t="shared" si="38"/>
-        <v>8.3608702269766884</v>
+        <v>14.050434156057703</v>
       </c>
       <c r="AG82" s="6">
         <f t="shared" si="39"/>
@@ -33875,12 +33925,12 @@
         <f t="shared" si="42"/>
         <v>1.4164244644014523</v>
       </c>
-      <c r="O83">
-        <v>46</v>
+      <c r="O83" s="6">
+        <v>44.222900000000003</v>
       </c>
       <c r="P83" s="8">
         <f t="shared" si="28"/>
-        <v>100</v>
+        <v>107.83416768064453</v>
       </c>
       <c r="S83" s="6">
         <f t="shared" si="29"/>
@@ -33896,7 +33946,7 @@
       </c>
       <c r="V83" s="6">
         <f t="shared" si="24"/>
-        <v>17.178647587825203</v>
+        <v>24.721085251153845</v>
       </c>
       <c r="W83" s="6">
         <f t="shared" si="37"/>
@@ -33928,7 +33978,7 @@
       </c>
       <c r="AF83" s="6">
         <f t="shared" si="38"/>
-        <v>9.7246989312620862</v>
+        <v>10.165053569969002</v>
       </c>
       <c r="AG83" s="6">
         <f t="shared" si="39"/>
@@ -33987,12 +34037,12 @@
         <f t="shared" si="42"/>
         <v>1.4362873495187234</v>
       </c>
-      <c r="O84">
-        <v>40</v>
+      <c r="O84" s="6">
+        <v>42.2864</v>
       </c>
       <c r="P84" s="8">
         <f t="shared" si="28"/>
-        <v>86.956521739130437</v>
+        <v>103.11216017517634</v>
       </c>
       <c r="S84" s="6">
         <f t="shared" si="29"/>
@@ -34008,7 +34058,7 @@
       </c>
       <c r="V84" s="6">
         <f t="shared" si="24"/>
-        <v>4.548993637331229</v>
+        <v>21.589902227130633</v>
       </c>
       <c r="W84" s="6">
         <f t="shared" si="37"/>
@@ -34040,7 +34090,7 @@
       </c>
       <c r="AF84" s="6">
         <f t="shared" si="38"/>
-        <v>-2.9049550192318883</v>
+        <v>7.0338705459457902</v>
       </c>
       <c r="AG84" s="6">
         <f t="shared" si="39"/>
@@ -34099,12 +34149,12 @@
         <f t="shared" si="42"/>
         <v>1.4438586426809985</v>
       </c>
-      <c r="O85">
-        <v>50</v>
+      <c r="O85" s="6">
+        <v>43.216999999999999</v>
       </c>
       <c r="P85" s="8">
         <f t="shared" si="28"/>
-        <v>108.69565217391303</v>
+        <v>105.38135727540288</v>
       </c>
       <c r="S85" s="6">
         <f t="shared" si="29"/>
@@ -34120,7 +34170,7 @@
       </c>
       <c r="V85" s="6">
         <f t="shared" si="24"/>
-        <v>27.343063724422002</v>
+        <v>24.246458683500073</v>
       </c>
       <c r="W85" s="6">
         <f t="shared" si="37"/>
@@ -34152,7 +34202,7 @@
       </c>
       <c r="AF85" s="6">
         <f t="shared" si="38"/>
-        <v>19.889115067858885</v>
+        <v>9.6904270023152304</v>
       </c>
       <c r="AG85" s="6">
         <f t="shared" si="39"/>
@@ -34211,12 +34261,12 @@
         <f t="shared" si="42"/>
         <v>1.468484597987048</v>
       </c>
-      <c r="O86">
-        <v>44</v>
+      <c r="O86" s="6">
+        <v>47.9983</v>
       </c>
       <c r="P86" s="8">
         <f t="shared" si="28"/>
-        <v>95.652173913043484</v>
+        <v>117.04019253793578</v>
       </c>
       <c r="S86" s="6">
         <f t="shared" si="29"/>
@@ -34232,7 +34282,7 @@
       </c>
       <c r="V86" s="6">
         <f t="shared" si="24"/>
-        <v>16.204866776273828</v>
+        <v>36.384764611696511</v>
       </c>
       <c r="W86" s="6">
         <f t="shared" si="37"/>
@@ -34264,7 +34314,7 @@
       </c>
       <c r="AF86" s="6">
         <f t="shared" si="38"/>
-        <v>8.7509181197107111</v>
+        <v>21.82873293051167</v>
       </c>
       <c r="AG86" s="6">
         <f t="shared" si="39"/>
@@ -34323,12 +34373,12 @@
         <f t="shared" si="42"/>
         <v>1.4320650782694948</v>
       </c>
-      <c r="O87">
-        <v>49</v>
+      <c r="O87" s="6">
+        <v>45.514299999999999</v>
       </c>
       <c r="P87" s="8">
         <f t="shared" si="28"/>
-        <v>106.5217391304348</v>
+        <v>110.98314805377211</v>
       </c>
       <c r="S87" s="6">
         <f t="shared" si="29"/>
@@ -34344,7 +34394,7 @@
       </c>
       <c r="V87" s="6">
         <f t="shared" si="24"/>
-        <v>24.410542332808337</v>
+        <v>28.513470616968604</v>
       </c>
       <c r="W87" s="6">
         <f t="shared" si="37"/>
@@ -34376,7 +34426,7 @@
       </c>
       <c r="AF87" s="6">
         <f t="shared" si="38"/>
-        <v>16.95659367624522</v>
+        <v>13.957438935783761</v>
       </c>
       <c r="AG87" s="6">
         <f t="shared" si="39"/>
@@ -34435,12 +34485,12 @@
         <f t="shared" si="42"/>
         <v>1.4369460938231602</v>
       </c>
-      <c r="O88">
-        <v>40</v>
+      <c r="O88" s="6">
+        <v>43.253700000000002</v>
       </c>
       <c r="P88" s="8">
         <f t="shared" si="28"/>
-        <v>86.956521739130437</v>
+        <v>105.47084742539032</v>
       </c>
       <c r="S88" s="6">
         <f t="shared" si="29"/>
@@ -34456,7 +34506,7 @@
       </c>
       <c r="V88" s="6">
         <f t="shared" si="24"/>
-        <v>4.4138582365984815</v>
+        <v>23.716492576221523</v>
       </c>
       <c r="W88" s="6">
         <f t="shared" si="37"/>
@@ -34488,7 +34538,7 @@
       </c>
       <c r="AF88" s="6">
         <f t="shared" si="38"/>
-        <v>-3.0400904199646357</v>
+        <v>9.1604608950366799</v>
       </c>
       <c r="AG88" s="6">
         <f t="shared" si="39"/>
@@ -34547,12 +34597,12 @@
         <f t="shared" si="42"/>
         <v>1.4695646837460852</v>
       </c>
-      <c r="O89">
-        <v>46</v>
+      <c r="O89" s="6">
+        <v>46.370699999999999</v>
       </c>
       <c r="P89" s="8">
         <f t="shared" si="28"/>
-        <v>100</v>
+        <v>113.07141411505945</v>
       </c>
       <c r="S89" s="6">
         <f t="shared" si="29"/>
@@ -34568,7 +34618,7 @@
       </c>
       <c r="V89" s="6">
         <f t="shared" si="24"/>
-        <v>20.591807763657478</v>
+        <v>32.876749406257531</v>
       </c>
       <c r="W89" s="6">
         <f t="shared" si="37"/>
@@ -34600,7 +34650,7 @@
       </c>
       <c r="AF89" s="6">
         <f t="shared" si="38"/>
-        <v>13.137859107094361</v>
+        <v>18.32071772507269</v>
       </c>
       <c r="AG89" s="6">
         <f t="shared" si="39"/>
@@ -34621,9 +34671,290 @@
     <row r="91" spans="2:35" x14ac:dyDescent="0.2">
       <c r="V91" s="8">
         <f>AVERAGE(V3:V89)</f>
-        <v>7.4539486565631172</v>
+        <v>14.556031681184843</v>
       </c>
       <c r="W91" s="8"/>
+    </row>
+    <row r="99" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N99" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N100" t="s">
+        <v>96</v>
+      </c>
+      <c r="O100" s="6">
+        <v>43.907600000000002</v>
+      </c>
+      <c r="P100">
+        <f>ROWS(O100:O133)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N101" t="s">
+        <v>97</v>
+      </c>
+      <c r="O101" s="6">
+        <v>42.662300000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N102" t="s">
+        <v>98</v>
+      </c>
+      <c r="O102" s="6">
+        <v>42.877200000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N103" t="s">
+        <v>99</v>
+      </c>
+      <c r="O103" s="6">
+        <v>44.316499999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N104" t="s">
+        <v>100</v>
+      </c>
+      <c r="O104" s="6">
+        <v>42.018999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N105" t="s">
+        <v>101</v>
+      </c>
+      <c r="O105" s="6">
+        <v>41.991199999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N106" t="s">
+        <v>102</v>
+      </c>
+      <c r="O106" s="6">
+        <v>42.094900000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N107" t="s">
+        <v>103</v>
+      </c>
+      <c r="O107" s="6">
+        <v>44.2836</v>
+      </c>
+    </row>
+    <row r="108" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N108" t="s">
+        <v>104</v>
+      </c>
+      <c r="O108" s="6">
+        <v>42.1706</v>
+      </c>
+    </row>
+    <row r="109" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N109" t="s">
+        <v>105</v>
+      </c>
+      <c r="O109" s="6">
+        <v>42.688800000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N110" t="s">
+        <v>106</v>
+      </c>
+      <c r="O110" s="6">
+        <v>42.219200000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N111" t="s">
+        <v>107</v>
+      </c>
+      <c r="O111" s="6">
+        <v>43.141100000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N112" t="s">
+        <v>108</v>
+      </c>
+      <c r="O112" s="6">
+        <v>41.010100000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N113" t="s">
+        <v>109</v>
+      </c>
+      <c r="O113" s="6">
+        <v>41.049399999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N114" t="s">
+        <v>110</v>
+      </c>
+      <c r="O114" s="6">
+        <v>41.238300000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N115" t="s">
+        <v>115</v>
+      </c>
+      <c r="O115" s="6">
+        <v>42.857799999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N116" t="s">
+        <v>116</v>
+      </c>
+      <c r="O116" s="6">
+        <v>41.892200000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N117" t="s">
+        <v>117</v>
+      </c>
+      <c r="O117" s="6">
+        <v>44.798699999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N118" t="s">
+        <v>118</v>
+      </c>
+      <c r="O118" s="6">
+        <v>43.021500000000003</v>
+      </c>
+    </row>
+    <row r="119" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N119" t="s">
+        <v>119</v>
+      </c>
+      <c r="O119" s="6">
+        <v>43.613900000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N120" t="s">
+        <v>120</v>
+      </c>
+      <c r="O120" s="6">
+        <v>41.996600000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N121" t="s">
+        <v>121</v>
+      </c>
+      <c r="O121" s="6">
+        <v>43.147300000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N122" t="s">
+        <v>122</v>
+      </c>
+      <c r="O122" s="6">
+        <v>43.491399999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N123" t="s">
+        <v>123</v>
+      </c>
+      <c r="O123" s="6">
+        <v>44.2149</v>
+      </c>
+    </row>
+    <row r="124" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N124" t="s">
+        <v>124</v>
+      </c>
+      <c r="O124" s="6">
+        <v>44.827599999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N125" t="s">
+        <v>125</v>
+      </c>
+      <c r="O125" s="6">
+        <v>45.073900000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N126" t="s">
+        <v>126</v>
+      </c>
+      <c r="O126" s="6">
+        <v>44.579900000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N127" t="s">
+        <v>127</v>
+      </c>
+      <c r="O127" s="6">
+        <v>44.222900000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N128" t="s">
+        <v>128</v>
+      </c>
+      <c r="O128" s="6">
+        <v>42.2864</v>
+      </c>
+    </row>
+    <row r="129" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N129" t="s">
+        <v>129</v>
+      </c>
+      <c r="O129" s="6">
+        <v>43.216999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N130" t="s">
+        <v>130</v>
+      </c>
+      <c r="O130" s="6">
+        <v>47.9983</v>
+      </c>
+    </row>
+    <row r="131" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N131" t="s">
+        <v>131</v>
+      </c>
+      <c r="O131" s="6">
+        <v>45.514299999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N132" t="s">
+        <v>132</v>
+      </c>
+      <c r="O132" s="6">
+        <v>43.253700000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N133" t="s">
+        <v>133</v>
+      </c>
+      <c r="O133" s="6">
+        <v>46.370699999999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -34640,5 +34971,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>